--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1617,13 +1617,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2076,8 +2079,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2708,8 +2805,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3875,6 +4125,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3882,7 +4414,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4154,49 +4686,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4581,7 +5158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5793,7 +6370,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60">
@@ -5801,7 +6378,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>450</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
@@ -5809,7 +6386,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
@@ -5817,7 +6394,7 @@
         <v>389</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -5825,7 +6402,7 @@
         <v>390</v>
       </c>
       <c r="U63" t="s">
-        <v>510</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -5833,7 +6410,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65">
@@ -5841,7 +6418,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -5849,7 +6426,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -5857,7 +6434,7 @@
         <v>373</v>
       </c>
       <c r="U67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
@@ -5865,7 +6442,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -5873,7 +6450,7 @@
         <v>471</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -5881,7 +6458,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -5889,7 +6466,7 @@
         <v>472</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -5897,7 +6474,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -5905,7 +6482,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -5913,7 +6490,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
@@ -5921,7 +6498,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -5929,7 +6506,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -5937,7 +6514,7 @@
         <v>493</v>
       </c>
       <c r="U77" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -5945,7 +6522,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
@@ -5953,7 +6530,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -5961,7 +6538,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -5969,7 +6546,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82">
@@ -5977,7 +6554,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83">
@@ -5985,7 +6562,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -5993,7 +6570,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -6001,7 +6578,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -6009,7 +6586,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -6017,7 +6594,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
@@ -6025,7 +6602,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -6033,7 +6610,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
@@ -6041,7 +6618,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91">
@@ -6049,7 +6626,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -6057,101 +6634,106 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -21,16 +21,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,8 +44,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1620,13 +1620,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2173,8 +2197,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2958,8 +3076,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4407,6 +4678,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4414,7 +4967,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4731,49 +5284,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5158,7 +5756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5484,6 +6082,9 @@
       <c r="C5" t="s">
         <v>226</v>
       </c>
+      <c r="D5" t="s">
+        <v>515</v>
+      </c>
       <c r="E5" t="s">
         <v>338</v>
       </c>
@@ -5577,7 +6178,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>521</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
@@ -5632,6 +6233,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>522</v>
+      </c>
       <c r="W7" t="s">
         <v>183</v>
       </c>
@@ -5682,6 +6286,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>177</v>
+      </c>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -5750,7 +6357,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>517</v>
       </c>
       <c r="M10" t="s">
         <v>497</v>
@@ -5785,7 +6392,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -5817,7 +6424,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -5845,6 +6452,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -5995,7 +6605,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -6012,7 +6622,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -6028,6 +6638,9 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -6258,7 +6871,7 @@
         <v>344</v>
       </c>
       <c r="U45" t="s">
-        <v>215</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46">
@@ -6266,7 +6879,7 @@
         <v>213</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47">
@@ -6274,7 +6887,7 @@
         <v>322</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -6282,7 +6895,7 @@
         <v>341</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -6290,7 +6903,7 @@
         <v>388</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -6298,7 +6911,7 @@
         <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -6306,7 +6919,7 @@
         <v>376</v>
       </c>
       <c r="U51" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -6314,7 +6927,7 @@
         <v>333</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
@@ -6322,7 +6935,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -6330,7 +6943,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -6338,7 +6951,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -6346,7 +6959,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -6354,7 +6967,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -6362,7 +6975,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -6370,7 +6983,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>514</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -6378,7 +6991,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61">
@@ -6386,7 +6999,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>450</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
@@ -6394,7 +7007,7 @@
         <v>389</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -6402,7 +7015,7 @@
         <v>390</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64">
@@ -6410,7 +7023,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>510</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -6418,7 +7031,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -6426,7 +7039,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -6434,7 +7047,7 @@
         <v>373</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -6442,7 +7055,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -6450,7 +7063,7 @@
         <v>471</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -6458,7 +7071,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -6466,7 +7079,7 @@
         <v>472</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -6474,7 +7087,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -6482,7 +7095,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -6490,7 +7103,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -6498,7 +7111,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -6506,7 +7119,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -6514,7 +7127,7 @@
         <v>493</v>
       </c>
       <c r="U77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -6522,7 +7135,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -6530,7 +7143,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80">
@@ -6538,7 +7151,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -6546,7 +7159,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -6554,7 +7167,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83">
@@ -6562,7 +7175,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84">
@@ -6570,7 +7183,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -6578,7 +7191,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -6586,7 +7199,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -6594,7 +7207,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -6602,7 +7215,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -6610,7 +7223,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -6618,7 +7231,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -6626,7 +7239,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92">
@@ -6634,106 +7247,116 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1650,7 +1650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2291,8 +2291,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3229,8 +3323,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4960,6 +5207,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4967,7 +5496,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="144">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5329,49 +5858,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4308" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1650,7 +1650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2385,8 +2385,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3476,8 +3570,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5489,6 +5736,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5496,7 +6025,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5903,49 +6432,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4308" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1650,7 +1650,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2479,8 +2479,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3723,8 +3817,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6018,6 +6265,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6025,7 +6554,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6477,49 +7006,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7361,7 +7935,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -7417,7 +7991,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -7467,7 +8041,7 @@
         <v>451</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -7505,7 +8079,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>517</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>497</v>
@@ -7540,7 +8114,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>517</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7572,7 +8146,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7601,7 +8175,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -7628,6 +8202,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1644,13 +1644,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2573,8 +2579,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3970,8 +4070,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6547,6 +6800,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6554,7 +7089,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="189">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7051,49 +7586,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7666,7 +8246,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>523</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7740,7 +8320,7 @@
         <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>524</v>
       </c>
       <c r="H4" t="s">
         <v>371</v>
@@ -7811,7 +8391,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
         <v>368</v>
@@ -7873,7 +8453,7 @@
         <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -7929,7 +8509,7 @@
         <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -7985,7 +8565,7 @@
         <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8037,6 +8617,9 @@
       <c r="E9" t="s">
         <v>308</v>
       </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
       <c r="I9" t="s">
         <v>451</v>
       </c>
@@ -8074,6 +8657,9 @@
       </c>
       <c r="E10" t="s">
         <v>372</v>
+      </c>
+      <c r="F10" t="s">
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1650,13 +1650,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2673,8 +2688,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4223,8 +4426,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7082,6 +7591,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7089,7 +8162,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="219">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7631,49 +8704,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8166,7 +9329,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>526</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -8246,7 +9409,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8320,7 +9483,7 @@
         <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H4" t="s">
         <v>371</v>
@@ -8391,7 +9554,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>528</v>
       </c>
       <c r="H5" t="s">
         <v>368</v>
@@ -8453,7 +9616,7 @@
         <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>524</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8509,7 +9672,7 @@
         <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8565,7 +9728,7 @@
         <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8618,7 +9781,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>529</v>
       </c>
       <c r="I9" t="s">
         <v>451</v>
@@ -8659,7 +9822,7 @@
         <v>372</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -8696,6 +9859,9 @@
       <c r="E11" t="s">
         <v>276</v>
       </c>
+      <c r="F11" t="s">
+        <v>325</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -8728,6 +9894,9 @@
       <c r="E12" t="s">
         <v>265</v>
       </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -8757,6 +9926,9 @@
       <c r="E13" t="s">
         <v>318</v>
       </c>
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -8961,7 +10133,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>525</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
@@ -8975,7 +10147,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -8989,7 +10161,7 @@
         <v>484</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -9003,7 +10175,7 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -9014,7 +10186,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -9025,7 +10197,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -9036,7 +10208,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -9047,7 +10219,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -9058,7 +10230,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -9069,7 +10241,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -9080,7 +10252,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
@@ -9090,6 +10262,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>332</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7072" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1665,13 +1665,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2876,8 +2882,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4732,8 +4926,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8155,6 +8655,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8162,7 +9226,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="249">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8794,49 +9858,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9221,7 +10375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10613,7 +11767,7 @@
         <v>493</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78">
@@ -10621,7 +11775,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -10629,7 +11783,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -10637,7 +11791,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81">
@@ -10645,7 +11799,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -10653,7 +11807,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
@@ -10661,7 +11815,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84">
@@ -10669,7 +11823,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85">
@@ -10677,7 +11831,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -10685,7 +11839,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -10693,7 +11847,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -10701,7 +11855,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -10709,7 +11863,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
@@ -10717,7 +11871,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -10725,7 +11879,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -10733,116 +11887,121 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7072" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7536" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1671,13 +1671,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3070,8 +3073,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5232,8 +5329,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9219,6 +9469,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9226,7 +9758,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9948,49 +10480,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10375,7 +10952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11711,7 +12288,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71">
@@ -11719,7 +12296,7 @@
         <v>472</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -11727,7 +12304,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -11735,7 +12312,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -11743,7 +12320,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -11751,7 +12328,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -11759,7 +12336,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -11767,7 +12344,7 @@
         <v>493</v>
       </c>
       <c r="U77" t="s">
-        <v>531</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -11775,7 +12352,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79">
@@ -11783,7 +12360,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -11791,7 +12368,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -11799,7 +12376,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82">
@@ -11807,7 +12384,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -11815,7 +12392,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -11823,7 +12400,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85">
@@ -11831,7 +12408,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86">
@@ -11839,7 +12416,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -11847,7 +12424,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -11855,7 +12432,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -11863,7 +12440,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -11871,7 +12448,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91">
@@ -11879,7 +12456,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
@@ -11887,121 +12464,126 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7536" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1674,13 +1674,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3167,8 +3170,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5482,8 +5579,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9751,6 +10001,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9758,7 +10290,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="279">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10525,49 +11057,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11285,7 +11862,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H5" t="s">
         <v>368</v>
@@ -11347,7 +11924,7 @@
         <v>449</v>
       </c>
       <c r="F6" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -11403,7 +11980,7 @@
         <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -11459,7 +12036,7 @@
         <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -11512,7 +12089,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>529</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
         <v>451</v>
@@ -11553,7 +12130,7 @@
         <v>372</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>529</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -11591,7 +12168,7 @@
         <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -11626,7 +12203,7 @@
         <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -11658,7 +12235,7 @@
         <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -11688,6 +12265,9 @@
       </c>
       <c r="E14" t="s">
         <v>266</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8001" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8932" uniqueCount="535">
   <si>
     <t>description</t>
   </si>
@@ -1677,13 +1677,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3264,8 +3267,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5732,8 +5923,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10283,6 +10780,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10290,7 +11351,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="309">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11102,49 +12163,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12270,7 +13421,7 @@
         <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -12299,7 +13450,7 @@
         <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -12325,7 +13476,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -12348,7 +13499,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -12365,7 +13516,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -12382,7 +13533,7 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -12399,7 +13550,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -12416,7 +13567,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -12433,7 +13584,7 @@
         <v>301</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -12448,6 +13599,9 @@
       </c>
       <c r="E23" t="s">
         <v>292</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8932" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1680,13 +1680,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3455,8 +3461,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6229,8 +6329,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11344,6 +11597,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11351,7 +11886,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="324">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12253,49 +12788,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12859,7 +13439,7 @@
         <v>434</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>535</v>
       </c>
       <c r="D3" t="s">
         <v>385</v>
@@ -12933,7 +13513,7 @@
         <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -13004,7 +13584,7 @@
         <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>536</v>
       </c>
       <c r="D5" t="s">
         <v>515</v>
@@ -13069,7 +13649,7 @@
         <v>437</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>449</v>
@@ -13125,7 +13705,7 @@
         <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
         <v>386</v>
@@ -13181,7 +13761,7 @@
         <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>387</v>
@@ -13234,7 +13814,7 @@
         <v>440</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
@@ -13275,7 +13855,7 @@
         <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>372</v>
@@ -13313,7 +13893,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
         <v>276</v>
@@ -13348,7 +13928,7 @@
         <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>265</v>
@@ -13380,7 +13960,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
         <v>318</v>
@@ -13412,7 +13992,7 @@
         <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>266</v>
@@ -13444,7 +14024,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>267</v>
@@ -13470,7 +14050,7 @@
         <v>461</v>
       </c>
       <c r="C16" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E16" t="s">
         <v>319</v>
@@ -13493,7 +14073,7 @@
         <v>482</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>447</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -13510,7 +14090,7 @@
         <v>475</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>473</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -13527,7 +14107,7 @@
         <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>298</v>
@@ -13544,7 +14124,7 @@
         <v>457</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>299</v>
@@ -13561,7 +14141,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
         <v>300</v>
@@ -13578,7 +14158,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
@@ -13595,7 +14175,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
@@ -13612,7 +14192,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -13626,7 +14206,7 @@
         <v>484</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>525</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -13640,7 +14220,7 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -13651,7 +14231,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -13662,7 +14242,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>480</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -13673,7 +14253,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -13684,7 +14264,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -13695,7 +14275,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -13706,7 +14286,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -13717,7 +14297,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
@@ -13728,7 +14308,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>332</v>
@@ -13738,6 +14318,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>309</v>
       </c>
@@ -13746,6 +14329,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9869" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1686,13 +1686,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3555,8 +3558,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6482,8 +6579,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11879,6 +12129,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11886,7 +12418,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12833,49 +13365,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13260,7 +13837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14472,7 +15049,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
     </row>
     <row r="54">
@@ -14480,7 +15057,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -14488,7 +15065,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -14496,7 +15073,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -14504,7 +15081,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -14512,7 +15089,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -14520,7 +15097,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -14528,7 +15105,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>514</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -14536,7 +15113,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62">
@@ -14544,7 +15121,7 @@
         <v>389</v>
       </c>
       <c r="U62" t="s">
-        <v>450</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63">
@@ -14552,7 +15129,7 @@
         <v>390</v>
       </c>
       <c r="U63" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
@@ -14560,7 +15137,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65">
@@ -14568,7 +15145,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -14576,7 +15153,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -14584,7 +15161,7 @@
         <v>373</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -14592,7 +15169,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -14600,7 +15177,7 @@
         <v>471</v>
       </c>
       <c r="U69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -14608,7 +15185,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>532</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -14616,7 +15193,7 @@
         <v>472</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72">
@@ -14624,7 +15201,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -14632,7 +15209,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -14640,7 +15217,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -14648,7 +15225,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -14656,7 +15233,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -14664,7 +15241,7 @@
         <v>493</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -14672,7 +15249,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>531</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -14680,7 +15257,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80">
@@ -14688,7 +15265,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -14696,7 +15273,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -14704,7 +15281,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83">
@@ -14712,7 +15289,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -14720,7 +15297,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -14728,7 +15305,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86">
@@ -14736,7 +15313,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87">
@@ -14744,7 +15321,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -14752,7 +15329,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -14760,7 +15337,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -14768,7 +15345,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -14776,7 +15353,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92">
@@ -14784,126 +15361,131 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -47,7 +47,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9869" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10340" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1689,13 +1689,19 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3652,8 +3658,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6732,8 +6839,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12411,6 +12671,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12418,7 +12960,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="355">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13410,49 +13952,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14176,7 +14766,7 @@
         <v>368</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>538</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -14235,7 +14825,7 @@
         <v>528</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -14291,7 +14881,7 @@
         <v>524</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>317</v>
@@ -14347,7 +14937,7 @@
         <v>330</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -14400,7 +14990,7 @@
         <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>451</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -14441,7 +15031,7 @@
         <v>529</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>451</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -14479,7 +15069,7 @@
         <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>517</v>
@@ -14514,7 +15104,7 @@
         <v>325</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -14546,7 +15136,7 @@
         <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -14578,7 +15168,7 @@
         <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14607,7 +15197,7 @@
         <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -14633,7 +15223,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -14656,10 +15246,13 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
+      </c>
+      <c r="X17" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="18">
@@ -14673,7 +15266,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -14690,7 +15283,7 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -14707,7 +15300,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -14724,7 +15317,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -14741,7 +15334,7 @@
         <v>301</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -14758,7 +15351,7 @@
         <v>292</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -14773,6 +15366,9 @@
       </c>
       <c r="E24" t="s">
         <v>281</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
       </c>
       <c r="U24" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -20,36 +20,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10340" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10815" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1695,13 +1696,22 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="327" x14ac:knownFonts="1">
+  <fonts count="343" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3759,8 +3769,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6992,8 +7103,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12953,6 +13217,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12960,7 +13506,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="371">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13997,52 +14543,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14427,7 +15021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14446,75 +15040,78 @@
         <v>432</v>
       </c>
       <c r="C1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>367</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>241</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>461</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>482</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>475</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>377</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>457</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>484</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14526,1562 +15123,1571 @@
         <v>433</v>
       </c>
       <c r="C2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>526</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>369</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>317</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>445</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>494</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>474</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>495</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>255</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>219</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>462</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>483</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>481</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>442</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>458</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>173</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>178</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>185</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>496</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>540</v>
       </c>
       <c r="B3" t="s">
         <v>434</v>
       </c>
       <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
         <v>535</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>385</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>370</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>343</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>336</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>503</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>242</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>220</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>463</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>477</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>443</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>459</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>174</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>179</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>384</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>186</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>435</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>448</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>527</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>371</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>240</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>337</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>243</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>221</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>464</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>478</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>378</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>460</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>374</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>175</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>180</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>186</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>485</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>436</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>536</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>515</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>338</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>533</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>368</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>538</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>244</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>222</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>465</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>479</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>379</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>375</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>176</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>181</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>187</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>486</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>437</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>449</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>528</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>245</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>452</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>466</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>381</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>521</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>182</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>188</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>487</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>438</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>226</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>386</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>524</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>246</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>476</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>467</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>380</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>522</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>183</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>189</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>488</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>439</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>320</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>387</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>330</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>247</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>468</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>382</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>177</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>184</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>190</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>489</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
         <v>440</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>308</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>331</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>248</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>469</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>383</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>211</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>191</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>317</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>372</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>529</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>451</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>497</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>249</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>470</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>259</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>192</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
         <v>257</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>276</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>324</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>517</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>250</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>260</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>261</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>321</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>265</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>325</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>251</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
         <v>343</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>318</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>326</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>256</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>328</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>266</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>327</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>252</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>267</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>534</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>253</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>461</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>446</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>319</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>254</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D17" t="s">
         <v>447</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>106</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>475</v>
-      </c>
-      <c r="C18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" t="s">
         <v>473</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>441</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>298</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>44</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>457</v>
-      </c>
-      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>299</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>453</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" t="s">
         <v>258</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>300</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>301</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>516</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>323</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>292</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>281</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>525</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" t="s">
+        <v>284</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>229</v>
       </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" t="s">
-        <v>284</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>228</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>268</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>480</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>285</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>286</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>218</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>277</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>287</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>262</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>332</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>263</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>269</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>214</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>291</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>302</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>303</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>345</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>344</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>213</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>322</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>341</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>388</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>376</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>333</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>270</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>294</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>295</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>296</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>339</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>389</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>390</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>347</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>271</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>373</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>471</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>472</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>264</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>346</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>282</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>288</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>293</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>493</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>334</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>272</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>283</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>289</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>278</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>273</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>290</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>274</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>275</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>297</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>342</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>279</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>280</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10815" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11291" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1705,13 +1705,19 @@
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="343" x14ac:knownFonts="1">
+  <fonts count="359" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3870,8 +3876,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7256,8 +7363,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13499,6 +13759,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13506,7 +14048,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="387">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14591,52 +15133,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="330" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15021,7 +15611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15123,7 +15713,7 @@
         <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -16235,7 +16825,7 @@
         <v>376</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52">
@@ -16243,7 +16833,7 @@
         <v>333</v>
       </c>
       <c r="V52" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -16251,7 +16841,7 @@
         <v>270</v>
       </c>
       <c r="V53" t="s">
-        <v>537</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54">
@@ -16259,7 +16849,7 @@
         <v>294</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55">
@@ -16267,7 +16857,7 @@
         <v>295</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -16275,7 +16865,7 @@
         <v>296</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -16283,7 +16873,7 @@
         <v>305</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -16291,7 +16881,7 @@
         <v>314</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -16299,7 +16889,7 @@
         <v>339</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -16307,7 +16897,7 @@
         <v>311</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -16315,7 +16905,7 @@
         <v>312</v>
       </c>
       <c r="V61" t="s">
-        <v>514</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -16323,7 +16913,7 @@
         <v>389</v>
       </c>
       <c r="V62" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63">
@@ -16331,7 +16921,7 @@
         <v>390</v>
       </c>
       <c r="V63" t="s">
-        <v>450</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64">
@@ -16339,7 +16929,7 @@
         <v>347</v>
       </c>
       <c r="V64" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65">
@@ -16347,7 +16937,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66">
@@ -16355,7 +16945,7 @@
         <v>271</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -16363,7 +16953,7 @@
         <v>373</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -16371,7 +16961,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -16379,7 +16969,7 @@
         <v>471</v>
       </c>
       <c r="V69" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -16387,7 +16977,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -16395,7 +16985,7 @@
         <v>472</v>
       </c>
       <c r="V71" t="s">
-        <v>532</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
@@ -16403,7 +16993,7 @@
         <v>264</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73">
@@ -16411,7 +17001,7 @@
         <v>346</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -16419,7 +17009,7 @@
         <v>282</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -16427,7 +17017,7 @@
         <v>288</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -16435,7 +17025,7 @@
         <v>293</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -16443,7 +17033,7 @@
         <v>493</v>
       </c>
       <c r="V77" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -16451,7 +17041,7 @@
         <v>334</v>
       </c>
       <c r="V78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -16459,7 +17049,7 @@
         <v>272</v>
       </c>
       <c r="V79" t="s">
-        <v>531</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -16467,7 +17057,7 @@
         <v>283</v>
       </c>
       <c r="V80" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81">
@@ -16475,7 +17065,7 @@
         <v>289</v>
       </c>
       <c r="V81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -16483,7 +17073,7 @@
         <v>278</v>
       </c>
       <c r="V82" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -16491,7 +17081,7 @@
         <v>273</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84">
@@ -16499,7 +17089,7 @@
         <v>290</v>
       </c>
       <c r="V84" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -16507,7 +17097,7 @@
         <v>274</v>
       </c>
       <c r="V85" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -16515,7 +17105,7 @@
         <v>275</v>
       </c>
       <c r="V86" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87">
@@ -16523,7 +17113,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88">
@@ -16531,7 +17121,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -16539,7 +17129,7 @@
         <v>297</v>
       </c>
       <c r="V89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -16547,7 +17137,7 @@
         <v>342</v>
       </c>
       <c r="V90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -16555,7 +17145,7 @@
         <v>279</v>
       </c>
       <c r="V91" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -16563,131 +17153,136 @@
         <v>280</v>
       </c>
       <c r="V92" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11291" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12723" uniqueCount="548">
   <si>
     <t>description</t>
   </si>
@@ -1711,13 +1711,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="359" x14ac:knownFonts="1">
+  <fonts count="407" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3977,8 +3986,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7516,8 +7828,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14041,6 +14812,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14048,7 +15665,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="435">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15181,52 +16798,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="345" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="361" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="362" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="365" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="377" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="378" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15731,7 +17492,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>547</v>
       </c>
       <c r="J2" t="s">
         <v>317</v>
@@ -15814,7 +17575,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J3" t="s">
         <v>343</v>
@@ -15885,7 +17646,7 @@
         <v>527</v>
       </c>
       <c r="I4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J4" t="s">
         <v>240</v>
@@ -15956,7 +17717,7 @@
         <v>533</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J5" t="s">
         <v>538</v>
@@ -16016,6 +17777,9 @@
       </c>
       <c r="G6" t="s">
         <v>528</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12723" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13201" uniqueCount="549">
   <si>
     <t>description</t>
   </si>
@@ -1720,13 +1720,16 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="407" x14ac:knownFonts="1">
+  <fonts count="423" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4289,8 +4292,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8287,8 +8391,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -15658,6 +15915,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15665,7 +16204,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="451">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16942,52 +17481,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="393" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17372,7 +17959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18765,7 +19352,7 @@
         <v>346</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74">
@@ -18773,7 +19360,7 @@
         <v>282</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -18781,7 +19368,7 @@
         <v>288</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -18789,7 +19376,7 @@
         <v>293</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -18797,7 +19384,7 @@
         <v>493</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -18805,7 +19392,7 @@
         <v>334</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -18813,7 +19400,7 @@
         <v>272</v>
       </c>
       <c r="V79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -18821,7 +19408,7 @@
         <v>283</v>
       </c>
       <c r="V80" t="s">
-        <v>531</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -18829,7 +19416,7 @@
         <v>289</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82">
@@ -18837,7 +19424,7 @@
         <v>278</v>
       </c>
       <c r="V82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -18845,7 +19432,7 @@
         <v>273</v>
       </c>
       <c r="V83" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -18853,7 +19440,7 @@
         <v>290</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85">
@@ -18861,7 +19448,7 @@
         <v>274</v>
       </c>
       <c r="V85" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -18869,7 +19456,7 @@
         <v>275</v>
       </c>
       <c r="V86" t="s">
-        <v>511</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -18877,7 +19464,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88">
@@ -18885,7 +19472,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89">
@@ -18893,7 +19480,7 @@
         <v>297</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -18901,7 +19488,7 @@
         <v>342</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -18909,7 +19496,7 @@
         <v>279</v>
       </c>
       <c r="V91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -18917,136 +19504,141 @@
         <v>280</v>
       </c>
       <c r="V92" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>444</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>520</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13201" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14640" uniqueCount="552">
   <si>
     <t>description</t>
   </si>
@@ -1723,13 +1723,22 @@
   <si>
     <t>openIgnoreTimeout(url)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="423" x14ac:knownFonts="1">
+  <fonts count="471" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4393,8 +4402,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8544,8 +8856,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -16197,6 +16968,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16204,7 +17821,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="499">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17529,52 +19146,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="425" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="426" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="429" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="441" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="442" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="445" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18827,7 +20588,7 @@
         <v>298</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>551</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -18844,7 +20605,7 @@
         <v>299</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -18861,7 +20622,7 @@
         <v>300</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -18878,7 +20639,7 @@
         <v>301</v>
       </c>
       <c r="J22" t="s">
-        <v>516</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -18895,7 +20656,7 @@
         <v>292</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -18912,7 +20673,7 @@
         <v>281</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -18928,6 +20689,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -18962,7 +20726,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="F28" t="s">
         <v>285</v>
@@ -18973,7 +20737,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>550</v>
       </c>
       <c r="F29" t="s">
         <v>286</v>
@@ -18984,7 +20748,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>480</v>
       </c>
       <c r="F30" t="s">
         <v>218</v>
@@ -18995,7 +20759,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>277</v>
@@ -19006,7 +20770,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>287</v>
@@ -19017,7 +20781,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>262</v>
@@ -19028,7 +20792,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>332</v>
@@ -19039,7 +20803,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>309</v>
@@ -19050,7 +20814,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>263</v>
@@ -19060,6 +20824,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>310</v>
       </c>
@@ -19068,6 +20835,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>269</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{2BD7945C-1FAE-514E-9735-9699AC7B22E2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -28,30 +28,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1772,13 +1773,37 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1956,8 +1981,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2129,8 +2255,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2450,6 +2729,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2457,7 +3018,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2598,52 +3159,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3058,9 +3667,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3107,48 +3716,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>460</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>481</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>474</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>376</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>456</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>483</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3190,48 +3802,51 @@
         <v>493</v>
       </c>
       <c r="M2" t="s">
+        <v>566</v>
+      </c>
+      <c r="N2" t="s">
         <v>473</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>494</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>461</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>482</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>480</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>441</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>457</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>495</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3258,7 +3873,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>564</v>
       </c>
       <c r="I3" t="s">
         <v>368</v>
@@ -3272,43 +3887,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>567</v>
+      </c>
+      <c r="O3" t="s">
         <v>502</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>462</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>476</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>442</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>458</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>383</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3331,6 +3949,9 @@
       <c r="G4" t="s">
         <v>523</v>
       </c>
+      <c r="H4" t="s">
+        <v>565</v>
+      </c>
       <c r="I4" t="s">
         <v>369</v>
       </c>
@@ -3343,43 +3964,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>568</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>463</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>477</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>377</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>459</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>373</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>484</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3411,40 +4035,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>464</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>478</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>378</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>374</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>485</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3473,37 +4097,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>451</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>465</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>380</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>518</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>486</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3529,37 +4153,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>475</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>466</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>379</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>519</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>487</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3585,34 +4209,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>467</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>381</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>488</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3638,25 +4262,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>468</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>382</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>561</v>
       </c>
     </row>
@@ -3679,22 +4303,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>496</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>469</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>562</v>
       </c>
     </row>
@@ -3717,19 +4341,19 @@
       <c r="L11" t="s">
         <v>549</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3752,25 +4376,25 @@
       <c r="L12" t="s">
         <v>514</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>563</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -3787,25 +4411,25 @@
       <c r="L13" t="s">
         <v>544</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -3822,22 +4446,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -3851,22 +4475,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>445</v>
@@ -3880,19 +4504,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>446</v>
@@ -3903,16 +4527,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
         <v>472</v>
@@ -3923,13 +4547,13 @@
       <c r="J18" t="s">
         <v>440</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -3940,13 +4564,13 @@
       <c r="J19" t="s">
         <v>543</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>474</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -3957,13 +4581,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -3974,13 +4598,13 @@
       <c r="J21" t="s">
         <v>452</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>456</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -3991,13 +4615,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -4008,13 +4632,13 @@
       <c r="J23" t="s">
         <v>513</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -4025,13 +4649,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>521</v>
@@ -4042,13 +4666,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>483</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -4056,13 +4680,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>483</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -4070,18 +4694,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>541</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4092,7 +4719,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4103,7 +4730,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4114,7 +4741,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4125,7 +4752,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4136,7 +4763,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4147,7 +4774,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4158,7 +4785,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4169,7 +4796,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4180,7 +4807,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4191,7 +4818,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4199,7 +4826,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4207,7 +4834,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4215,7 +4842,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4223,7 +4850,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4231,7 +4858,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4239,7 +4866,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4247,7 +4874,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4255,7 +4882,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4263,7 +4890,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4271,7 +4898,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4279,7 +4906,7 @@
       <c r="F49" t="s">
         <v>387</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4287,7 +4914,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4295,475 +4922,485 @@
       <c r="F51" t="s">
         <v>375</v>
       </c>
-      <c r="V51" t="s">
-        <v>538</v>
+      <c r="W51" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>365</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>532</v>
+      <c r="W54" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>388</v>
       </c>
-      <c r="V62" t="s">
-        <v>511</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>389</v>
       </c>
-      <c r="V63" t="s">
-        <v>560</v>
+      <c r="W63" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>449</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>516</v>
+      <c r="W66" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>372</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>470</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>471</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>527</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>540</v>
+      <c r="W74" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>492</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>526</v>
+      <c r="W82" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>509</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>510</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4776,7 +5413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" topLeftCell="A2" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -16434,7 +17071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E030708B-B33F-D549-9D55-0B334D80E114}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -28034,7 +28671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B7DBF9-C47A-2049-BFA4-FD6BF3CC1D4B}">
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1797,13 +1797,16 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2082,8 +2085,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2408,8 +2512,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3011,6 +3268,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3018,7 +3557,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3207,52 +3746,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4599,7 +5186,7 @@
         <v>452</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1806,7 +1806,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2186,8 +2186,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2665,8 +2766,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3550,6 +3804,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3557,7 +4093,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3794,52 +4330,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -22,37 +22,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1800,13 +1801,28 @@
   <si>
     <t>assertIENativeMode()</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2287,8 +2303,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2919,8 +3238,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4086,6 +4864,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4093,7 +5717,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4378,52 +6002,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4838,7 +6606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4860,78 +6628,81 @@
         <v>535</v>
       </c>
       <c r="D1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>366</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>563</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>460</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>481</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>474</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>376</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>456</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>483</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4946,78 +6717,81 @@
         <v>537</v>
       </c>
       <c r="D2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>522</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>539</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>444</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>493</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>566</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>473</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>494</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>461</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>482</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>480</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>441</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>457</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>495</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5032,1546 +6806,1558 @@
         <v>536</v>
       </c>
       <c r="D3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" t="s">
         <v>530</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>384</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>564</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>368</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>567</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>502</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>462</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>476</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>442</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>458</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>383</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
         <v>434</v>
       </c>
       <c r="D4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>447</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>523</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>565</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>369</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>568</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>463</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>477</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>377</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>459</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>373</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>484</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>435</v>
       </c>
       <c r="D5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" t="s">
         <v>531</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>512</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>528</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>370</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>533</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>464</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>478</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>378</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>374</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>485</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>436</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>448</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>524</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>367</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>451</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>465</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>380</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>518</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>486</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>437</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>385</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>520</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>475</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>466</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>379</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>519</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>487</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>438</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>386</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>467</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>381</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>488</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>439</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>468</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>382</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>371</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>525</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>450</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>496</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>469</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>549</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>514</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>563</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>544</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>563</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>529</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>445</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>446</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>460</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>472</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>440</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>481</v>
-      </c>
-      <c r="D19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>543</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>474</v>
-      </c>
-      <c r="D20" t="s">
+        <v>481</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>452</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>513</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>521</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>483</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E28" t="s">
+        <v>541</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>541</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>542</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>479</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>387</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>375</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>388</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>389</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>372</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>470</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>471</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>492</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -51,7 +51,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1816,13 +1816,28 @@
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
   </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2606,8 +2621,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3697,8 +3813,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5710,6 +5979,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5717,7 +6268,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6146,52 +6697,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6792,7 +7391,7 @@
         <v>495</v>
       </c>
       <c r="AC2" t="s">
-        <v>229</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
@@ -6875,7 +7474,7 @@
         <v>185</v>
       </c>
       <c r="AC3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -6955,7 +7554,7 @@
         <v>484</v>
       </c>
       <c r="AC4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -7023,7 +7622,7 @@
         <v>485</v>
       </c>
       <c r="AC5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -7082,7 +7681,7 @@
         <v>486</v>
       </c>
       <c r="AC6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
@@ -7138,7 +7737,7 @@
         <v>487</v>
       </c>
       <c r="AC7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -7191,7 +7790,7 @@
         <v>488</v>
       </c>
       <c r="AC8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -7235,7 +7834,7 @@
         <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>561</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -7273,7 +7872,7 @@
         <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11">
@@ -7308,7 +7907,7 @@
         <v>260</v>
       </c>
       <c r="AC11" t="s">
-        <v>236</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12">
@@ -7343,7 +7942,7 @@
         <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>237</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13">
@@ -7378,7 +7977,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>238</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14">
@@ -7412,6 +8011,9 @@
       <c r="AA14" t="s">
         <v>194</v>
       </c>
+      <c r="AC14" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -7441,6 +8043,9 @@
       <c r="AA15" t="s">
         <v>195</v>
       </c>
+      <c r="AC15" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -7467,6 +8072,9 @@
       <c r="AA16" t="s">
         <v>196</v>
       </c>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -7487,6 +8095,9 @@
       <c r="AA17" t="s">
         <v>534</v>
       </c>
+      <c r="AC17" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -7503,6 +8114,9 @@
       </c>
       <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -46,12 +46,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1831,13 +1831,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2722,8 +2734,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3966,8 +4079,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6261,6 +6527,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6268,7 +6816,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="184">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6745,52 +7293,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7205,7 +7801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7977,7 +8573,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14">
@@ -8012,7 +8608,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15">
@@ -8044,7 +8640,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16">
@@ -8073,7 +8669,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17">
@@ -8096,7 +8692,7 @@
         <v>534</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18">
@@ -8116,7 +8712,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19">
@@ -8135,6 +8731,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -8152,6 +8751,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -8169,6 +8771,9 @@
       <c r="X21" t="s">
         <v>571</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -8718,7 +9323,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80">
@@ -8726,7 +9331,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -8734,7 +9339,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -8742,7 +9347,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>570</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -8750,7 +9355,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84">
@@ -8758,7 +9363,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>526</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -8766,7 +9371,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86">
@@ -8774,7 +9379,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -8782,7 +9387,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -8790,7 +9395,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -8798,7 +9403,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -8806,7 +9411,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>509</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -8814,7 +9419,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92">
@@ -8822,156 +9427,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -37,7 +37,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6294" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1843,13 +1843,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2835,8 +2844,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4232,8 +4443,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6809,6 +7326,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6816,7 +7897,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="216">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7341,52 +8422,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7801,7 +8978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8628,7 +9805,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>586</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -8659,6 +9836,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>587</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -8686,7 +9866,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>588</v>
       </c>
       <c r="AA17" t="s">
         <v>534</v>
@@ -8709,7 +9889,7 @@
         <v>440</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>585</v>
@@ -8729,7 +9909,7 @@
         <v>543</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -8749,7 +9929,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -8769,7 +9949,7 @@
         <v>452</v>
       </c>
       <c r="X21" t="s">
-        <v>571</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -8789,7 +9969,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23">
@@ -8806,7 +9986,7 @@
         <v>513</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -8823,7 +10003,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -8840,7 +10020,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -8854,7 +10034,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -8868,7 +10048,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -8882,7 +10062,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -8896,7 +10076,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -8907,7 +10087,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -8918,7 +10098,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -8929,7 +10109,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -8940,7 +10120,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -8951,7 +10131,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -8962,7 +10142,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -8973,7 +10153,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -8984,7 +10164,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>508</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -8995,7 +10175,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39">
@@ -9003,7 +10183,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40">
@@ -9011,7 +10191,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -9019,7 +10199,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -9027,7 +10207,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -9035,7 +10215,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -9043,7 +10223,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -9051,7 +10231,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -9059,7 +10239,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47">
@@ -9067,7 +10247,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -9075,7 +10255,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -9083,7 +10263,7 @@
         <v>387</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -9091,7 +10271,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -9099,7 +10279,7 @@
         <v>375</v>
       </c>
       <c r="X51" t="s">
-        <v>569</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -9107,7 +10287,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53">
@@ -9115,7 +10295,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54">
@@ -9123,7 +10303,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>365</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -9131,7 +10311,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>532</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56">
@@ -9139,7 +10319,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57">
@@ -9147,7 +10327,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -9155,7 +10335,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -9163,7 +10343,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -9171,7 +10351,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -9179,7 +10359,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -9187,7 +10367,7 @@
         <v>388</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -9195,7 +10375,7 @@
         <v>389</v>
       </c>
       <c r="X63" t="s">
-        <v>511</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -9203,7 +10383,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65">
@@ -9211,7 +10391,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66">
@@ -9219,7 +10399,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>449</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -9227,7 +10407,7 @@
         <v>372</v>
       </c>
       <c r="X67" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68">
@@ -9235,7 +10415,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69">
@@ -9243,7 +10423,7 @@
         <v>470</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -9251,7 +10431,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -9259,7 +10439,7 @@
         <v>471</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -9267,7 +10447,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -9275,7 +10455,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -9283,7 +10463,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>527</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -9291,7 +10471,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76">
@@ -9299,7 +10479,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77">
@@ -9307,7 +10487,7 @@
         <v>492</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -9315,7 +10495,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -9323,7 +10503,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>582</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -9331,7 +10511,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81">
@@ -9339,7 +10519,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -9347,7 +10527,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -9355,7 +10535,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>570</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -9363,7 +10543,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85">
@@ -9371,7 +10551,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>526</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -9379,7 +10559,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87">
@@ -9387,7 +10567,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -9395,7 +10575,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -9403,7 +10583,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -9411,7 +10591,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -9419,7 +10599,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>509</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -9427,161 +10607,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6294" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7317" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1852,13 +1852,16 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3046,8 +3049,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4749,8 +4954,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7890,6 +8401,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7897,7 +8972,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8518,52 +9593,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8978,7 +10149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10647,126 +11818,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>517</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -23,14 +23,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7317" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -1855,13 +1855,25 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3251,8 +3263,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5260,8 +5373,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8965,6 +9231,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8972,7 +9520,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9689,52 +10237,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10579,6 +11175,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>590</v>
+      </c>
       <c r="G6" t="s">
         <v>448</v>
       </c>
@@ -10701,7 +11300,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>591</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -10754,7 +11353,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -10795,7 +11394,7 @@
         <v>525</v>
       </c>
       <c r="K10" t="s">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -10833,7 +11432,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>592</v>
       </c>
       <c r="M11" t="s">
         <v>549</v>
@@ -10868,7 +11467,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>450</v>
       </c>
       <c r="M12" t="s">
         <v>514</v>
@@ -10903,7 +11502,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>544</v>
@@ -10938,7 +11537,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -10970,7 +11569,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -11002,7 +11601,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -11034,7 +11633,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>588</v>
@@ -11057,7 +11656,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -11077,7 +11676,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>543</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -11097,7 +11696,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -11117,7 +11716,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -11137,7 +11736,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>543</v>
       </c>
       <c r="X22" t="s">
         <v>571</v>
@@ -11154,7 +11753,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>513</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -11171,7 +11770,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -11188,7 +11787,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -11204,6 +11803,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>513</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -11218,6 +11820,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -11231,6 +11836,9 @@
       </c>
       <c r="G28" t="s">
         <v>284</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>328</v>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8351" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1867,13 +1867,19 @@
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3364,8 +3370,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5526,8 +5633,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9513,6 +9773,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9520,7 +10062,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="280">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10285,52 +10827,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11896,7 +12486,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>594</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -11907,7 +12497,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -11918,7 +12508,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -11929,7 +12519,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -11940,7 +12530,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -11951,7 +12541,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>508</v>
@@ -11959,7 +12549,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>453</v>
@@ -11967,7 +12557,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -11975,7 +12565,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -11983,7 +12573,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -11991,7 +12581,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -11999,7 +12589,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -12007,7 +12597,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -12015,7 +12605,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>515</v>
@@ -12023,7 +12613,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -12031,7 +12621,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -12039,7 +12629,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -12047,7 +12637,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -12055,7 +12645,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -12063,7 +12653,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="X52" t="s">
         <v>569</v>
@@ -12071,7 +12661,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>538</v>
@@ -12079,7 +12669,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -12087,7 +12677,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>365</v>
@@ -12095,7 +12685,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>532</v>
@@ -12103,7 +12693,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -12111,7 +12701,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -12119,7 +12709,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -12127,7 +12717,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -12135,7 +12725,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -12143,7 +12733,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -12151,7 +12741,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -12159,7 +12749,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="X64" t="s">
         <v>511</v>
@@ -12167,7 +12757,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>560</v>
@@ -12175,7 +12765,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -12183,7 +12773,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>372</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>449</v>
@@ -12191,7 +12781,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="X68" t="s">
         <v>516</v>
@@ -12199,7 +12789,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>470</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -12207,7 +12797,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>470</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -12215,7 +12805,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>471</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -12223,7 +12813,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -12231,7 +12821,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -12239,7 +12829,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>595</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -12247,7 +12837,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>527</v>
@@ -12255,7 +12845,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>540</v>
@@ -12263,7 +12853,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>492</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -12271,7 +12861,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -12279,7 +12869,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>492</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -12287,7 +12877,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>582</v>
@@ -12295,7 +12885,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -12303,7 +12893,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -12311,7 +12901,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -12319,7 +12909,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>570</v>
@@ -12327,7 +12917,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -12335,7 +12925,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>526</v>
@@ -12343,7 +12933,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -12351,7 +12941,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -12359,7 +12949,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -12367,7 +12957,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -12375,7 +12965,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -12383,18 +12973,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/json-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/json-showcase.xlsx
@@ -46,7 +46,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8351" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9391" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1873,13 +1873,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3471,8 +3477,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="469">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5786,8 +5994,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10055,6 +10603,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10062,7 +11174,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="312">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10875,52 +11987,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="441" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="444" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="450" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="456" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="459" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="462" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="462" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="465" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11335,7 +12543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13027,126 +14235,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>596</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>517</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>
